--- a/result.xlsx
+++ b/result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyb\OneDrive - mail.nankai.edu.cn\并行计算技术\OPENMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyb\OneDrive - mail.nankai.edu.cn\并行计算技术\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05054212-5795-45E2-83D9-51E61F16DC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7727DB57-07DC-420A-818E-3F7E470DD8A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
   <si>
     <t>运行时间，单位(s)</t>
   </si>
@@ -77,6 +77,22 @@
   </si>
   <si>
     <t>去创建线程开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA，仅dtad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuda总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuda部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,11 +164,14 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19800,30 +19819,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R144" sqref="R144"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O157" sqref="O157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -20520,21 +20539,21 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="F38" s="3" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="J38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -21236,21 +21255,21 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="G78" s="3" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="G78" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="L78" s="3" t="s">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="L78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -22179,26 +22198,26 @@
       <c r="A114" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="G115" s="3" t="s">
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="G115" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="L115" s="3" t="s">
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="L115" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -23079,20 +23098,633 @@
       </c>
       <c r="Q132" s="2"/>
     </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="G152" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="L152" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" s="1"/>
+      <c r="K153" t="s">
+        <v>3</v>
+      </c>
+      <c r="L153" t="s">
+        <v>4</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>128</v>
+      </c>
+      <c r="B154">
+        <v>0.14218838</v>
+      </c>
+      <c r="C154">
+        <v>0.70580854999999998</v>
+      </c>
+      <c r="F154">
+        <v>128</v>
+      </c>
+      <c r="G154">
+        <v>676</v>
+      </c>
+      <c r="H154">
+        <v>616</v>
+      </c>
+      <c r="K154">
+        <v>128</v>
+      </c>
+      <c r="L154">
+        <f t="shared" ref="L154:L169" si="14">B154/G154*1000</f>
+        <v>0.21033784023668639</v>
+      </c>
+      <c r="M154">
+        <f>C154/H154*1000</f>
+        <v>1.1457931006493507</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>256</v>
+      </c>
+      <c r="B155">
+        <v>1.36119203</v>
+      </c>
+      <c r="C155">
+        <v>2.9186605999999999</v>
+      </c>
+      <c r="F155">
+        <v>256</v>
+      </c>
+      <c r="G155">
+        <v>1659</v>
+      </c>
+      <c r="H155">
+        <v>2115</v>
+      </c>
+      <c r="K155">
+        <v>256</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="14"/>
+        <v>0.82048946955997581</v>
+      </c>
+      <c r="M155">
+        <f t="shared" ref="M155:M169" si="15">C155/H155*1000</f>
+        <v>1.3799813711583924</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>384</v>
+      </c>
+      <c r="B156">
+        <v>4.1844674407301401</v>
+      </c>
+      <c r="C156">
+        <v>3.6004505600000001</v>
+      </c>
+      <c r="F156">
+        <v>384</v>
+      </c>
+      <c r="G156">
+        <v>1825</v>
+      </c>
+      <c r="H156">
+        <v>2789</v>
+      </c>
+      <c r="K156">
+        <v>384</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="14"/>
+        <v>2.2928588716329532</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="15"/>
+        <v>1.2909467766224454</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>512</v>
+      </c>
+      <c r="B157">
+        <v>12.182143569999999</v>
+      </c>
+      <c r="C157">
+        <v>5.5624348000000001</v>
+      </c>
+      <c r="F157">
+        <v>512</v>
+      </c>
+      <c r="G157">
+        <v>3740</v>
+      </c>
+      <c r="H157">
+        <v>2979</v>
+      </c>
+      <c r="K157">
+        <v>512</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="14"/>
+        <v>3.2572576390374328</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="15"/>
+        <v>1.8672154414232967</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>640</v>
+      </c>
+      <c r="B158">
+        <v>25.184467440733901</v>
+      </c>
+      <c r="C158">
+        <v>15.1844674407313</v>
+      </c>
+      <c r="F158">
+        <v>640</v>
+      </c>
+      <c r="G158">
+        <v>5097</v>
+      </c>
+      <c r="H158">
+        <v>5323</v>
+      </c>
+      <c r="K158">
+        <v>640</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="14"/>
+        <v>4.9410373632987836</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="15"/>
+        <v>2.8526145858972951</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>768</v>
+      </c>
+      <c r="B159">
+        <v>31.868529219999999</v>
+      </c>
+      <c r="C159">
+        <v>23.498286581999999</v>
+      </c>
+      <c r="F159">
+        <v>768</v>
+      </c>
+      <c r="G159">
+        <v>4414</v>
+      </c>
+      <c r="H159">
+        <v>6751</v>
+      </c>
+      <c r="K159">
+        <v>768</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="14"/>
+        <v>7.2198752197553242</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="15"/>
+        <v>3.4807119807435933</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>896</v>
+      </c>
+      <c r="B160">
+        <v>55.184467440734601</v>
+      </c>
+      <c r="C160">
+        <v>43.184467440734203</v>
+      </c>
+      <c r="F160">
+        <v>896</v>
+      </c>
+      <c r="G160">
+        <v>5802</v>
+      </c>
+      <c r="H160">
+        <v>8417</v>
+      </c>
+      <c r="K160">
+        <v>896</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="14"/>
+        <v>9.5112835988856599</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="15"/>
+        <v>5.1306246216863727</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1024</v>
+      </c>
+      <c r="B161">
+        <v>138.184467440731</v>
+      </c>
+      <c r="C161">
+        <v>51.184467440733897</v>
+      </c>
+      <c r="F161">
+        <v>1024</v>
+      </c>
+      <c r="G161">
+        <v>10906</v>
+      </c>
+      <c r="H161">
+        <v>8708</v>
+      </c>
+      <c r="K161">
+        <v>1024</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="14"/>
+        <v>12.670499490255914</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="15"/>
+        <v>5.8778671842827173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1152</v>
+      </c>
+      <c r="B162">
+        <v>99.705498199999994</v>
+      </c>
+      <c r="C162">
+        <v>87.560694255000001</v>
+      </c>
+      <c r="F162">
+        <v>1152</v>
+      </c>
+      <c r="G162">
+        <v>6345</v>
+      </c>
+      <c r="H162">
+        <v>11567</v>
+      </c>
+      <c r="K162">
+        <v>1152</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="14"/>
+        <v>15.714026509062252</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="15"/>
+        <v>7.569870688596871</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1280</v>
+      </c>
+      <c r="B163">
+        <v>212.67718826999999</v>
+      </c>
+      <c r="C163">
+        <v>70.197168245</v>
+      </c>
+      <c r="F163">
+        <v>1280</v>
+      </c>
+      <c r="G163">
+        <v>10818</v>
+      </c>
+      <c r="H163">
+        <v>7942</v>
+      </c>
+      <c r="K163">
+        <v>1280</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="14"/>
+        <v>19.659566303383247</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="15"/>
+        <v>8.8387267999244532</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1408</v>
+      </c>
+      <c r="B164">
+        <v>232.18446744073501</v>
+      </c>
+      <c r="C164">
+        <v>140.4751784</v>
+      </c>
+      <c r="F164">
+        <v>1408</v>
+      </c>
+      <c r="G164">
+        <v>9693</v>
+      </c>
+      <c r="H164">
+        <v>12640</v>
+      </c>
+      <c r="K164">
+        <v>1408</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="14"/>
+        <v>23.953829303696999</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="15"/>
+        <v>11.11354259493671</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1536</v>
+      </c>
+      <c r="B165">
+        <v>419.18446744073401</v>
+      </c>
+      <c r="C165">
+        <v>136.63108869999999</v>
+      </c>
+      <c r="F165">
+        <v>1536</v>
+      </c>
+      <c r="G165">
+        <v>14670</v>
+      </c>
+      <c r="H165">
+        <v>10706</v>
+      </c>
+      <c r="K165">
+        <v>1536</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="14"/>
+        <v>28.574264992551736</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="15"/>
+        <v>12.762104305996635</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1664</v>
+      </c>
+      <c r="B166">
+        <v>429.184467440736</v>
+      </c>
+      <c r="C166">
+        <v>190.18446744073401</v>
+      </c>
+      <c r="F166">
+        <v>1664</v>
+      </c>
+      <c r="G166">
+        <v>13141</v>
+      </c>
+      <c r="H166">
+        <v>12805</v>
+      </c>
+      <c r="K166">
+        <v>1664</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="14"/>
+        <v>32.659954907597296</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="15"/>
+        <v>14.852359815754316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1792</v>
+      </c>
+      <c r="B167">
+        <v>638.14885233999996</v>
+      </c>
+      <c r="C167">
+        <v>147.44270319200001</v>
+      </c>
+      <c r="F167">
+        <v>1792</v>
+      </c>
+      <c r="G167">
+        <v>16652</v>
+      </c>
+      <c r="H167">
+        <v>8719</v>
+      </c>
+      <c r="K167">
+        <v>1792</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="14"/>
+        <v>38.32265507686764</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="15"/>
+        <v>16.910506158045649</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1920</v>
+      </c>
+      <c r="B168">
+        <v>994.18446744073503</v>
+      </c>
+      <c r="C168">
+        <v>355.18446744073202</v>
+      </c>
+      <c r="F168">
+        <v>1920</v>
+      </c>
+      <c r="G168">
+        <v>22916</v>
+      </c>
+      <c r="H168">
+        <v>18705</v>
+      </c>
+      <c r="K168">
+        <v>1920</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="14"/>
+        <v>43.383857018708987</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="15"/>
+        <v>18.988744583840258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2048</v>
+      </c>
+      <c r="B169">
+        <v>1161.4684852</v>
+      </c>
+      <c r="C169">
+        <v>422.53599036000003</v>
+      </c>
+      <c r="F169">
+        <v>2048</v>
+      </c>
+      <c r="G169">
+        <v>23799</v>
+      </c>
+      <c r="H169">
+        <v>19499</v>
+      </c>
+      <c r="K169">
+        <v>2048</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="14"/>
+        <v>48.803247413756885</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="15"/>
+        <v>21.669623588901995</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="G152:I152"/>
+    <mergeCell ref="L152:N152"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="J38:L38"/>
     <mergeCell ref="B115:D115"/>
     <mergeCell ref="G115:I115"/>
     <mergeCell ref="L115:N115"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="G78:I78"/>
     <mergeCell ref="L78:N78"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="J38:L38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyb\OneDrive - mail.nankai.edu.cn\并行计算技术\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive - mail.nankai.edu.cn\并行计算技术\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7727DB57-07DC-420A-818E-3F7E470DD8A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405EFD2B-CC9B-4AE5-8AEC-CBED7E3AA551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>运行时间，单位(s)</t>
   </si>
@@ -80,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUDA，仅dtad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cuda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,7 +98,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cuda部分</t>
+    <t>CUDA，仅优化dtad, 总时间，不参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CUDA，仅优化dTAd，仅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dTAd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_count</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_单次(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base总(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuda总(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuda_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cuda_单次(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +202,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,6 +250,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5066,6 +5151,2152 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>问题规模</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>总时间</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result!$A$154:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result!$B$154:$B$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.14218838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36119203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1844674407301401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.182143569999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.184467440733901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.868529219999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.184467440734601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.184467440731</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.705498199999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>212.67718826999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232.18446744073501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>419.18446744073401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>429.184467440736</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>638.14885233999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>994.18446744073503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1161.4684852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-39FD-4BAA-B510-046C0EBFFB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>cuda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result!$A$154:$A$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result!$C$154:$C$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.70580854999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9186605999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6004505600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5624348000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.1844674407313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.498286581999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.184467440734203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.184467440733897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.560694255000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.197168245</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140.4751784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.63108869999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>190.18446744073401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147.44270319200001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355.18446744073202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>422.53599036000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-39FD-4BAA-B510-046C0EBFFB69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135749696"/>
+        <c:axId val="2135748448"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135749696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135748448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135748448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+                  <a:t>运行时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135749696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>问题规模</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>迭代次数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result!$F$154:$F$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result!$G$154:$G$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1825</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10818</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14670</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22916</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D52C-4033-9815-BA140D12443A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>cuda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result!$F$154:$F$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result!$H$154:$H$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8417</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8708</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12640</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10706</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8719</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18705</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D52C-4033-9815-BA140D12443A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135749696"/>
+        <c:axId val="2135748448"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135749696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135748448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135748448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+                  <a:t>迭代次数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135749696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>问题规模</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+              <a:t>平均每次迭代时间</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>base</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result!$K$154:$K$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result!$L$154:$L$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.21033784023668639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82048946955997581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2928588716329532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2572576390374328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9410373632987836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2198752197553242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5112835988856599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.670499490255914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.714026509062252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.659566303383247</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.953829303696999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.574264992551736</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.659954907597296</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.32265507686764</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.383857018708987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.803247413756885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1CD8-4087-8112-01C90A8050E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>cuda</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>result!$K$154:$K$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>result!$M$154:$M$169</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.1457931006493507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3799813711583924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2909467766224454</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8672154414232967</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8526145858972951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4807119807435933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1306246216863727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8778671842827173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.569870688596871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8387267999244532</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.11354259493671</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.762104305996635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.852359815754316</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.910506158045649</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.988744583840258</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.669623588901995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1CD8-4087-8112-01C90A8050E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135749696"/>
+        <c:axId val="2135748448"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135749696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+                  <a:t>问题规模</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135748448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135748448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+                  <a:t>每次迭代时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135749696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -12600,6 +14831,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -14469,6 +16820,1554 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19558,6 +23457,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99CD707D-3685-4056-A838-D8C2130875C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3338521-697C-46B6-BAA6-8924077CEC48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="图表 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DAF302-8DD7-4275-B709-B44E97D37E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19819,30 +23832,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q186"/>
+  <dimension ref="A1:Q207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O157" sqref="O157"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F188" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -20539,21 +24555,21 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="F38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="J38" s="4" t="s">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="J38" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -21255,21 +25271,21 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="G78" s="4" t="s">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="G78" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="L78" s="4" t="s">
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="L78" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -22203,21 +26219,21 @@
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="G115" s="4" t="s">
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="G115" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="L115" s="4" t="s">
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+      <c r="L115" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -23099,28 +27115,31 @@
       <c r="Q132" s="2"/>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="A151" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="G152" s="4" t="s">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="G152" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="L152" s="4" t="s">
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="L152" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -23130,11 +27149,9 @@
         <v>4</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D153" s="3"/>
       <c r="E153" s="1"/>
       <c r="F153" t="s">
         <v>3</v>
@@ -23143,11 +27160,9 @@
         <v>4</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I153" s="3"/>
       <c r="J153" s="1"/>
       <c r="K153" t="s">
         <v>3</v>
@@ -23156,11 +27171,9 @@
         <v>4</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N153" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="N153" s="3"/>
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -23380,7 +27393,7 @@
         <v>5.1306246216863727</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1024</v>
       </c>
@@ -23411,7 +27424,7 @@
         <v>5.8778671842827173</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1152</v>
       </c>
@@ -23442,7 +27455,7 @@
         <v>7.569870688596871</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1280</v>
       </c>
@@ -23473,7 +27486,7 @@
         <v>8.8387267999244532</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1408</v>
       </c>
@@ -23504,7 +27517,7 @@
         <v>11.11354259493671</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1536</v>
       </c>
@@ -23535,7 +27548,7 @@
         <v>12.762104305996635</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1664</v>
       </c>
@@ -23566,7 +27579,7 @@
         <v>14.852359815754316</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1792</v>
       </c>
@@ -23597,7 +27610,7 @@
         <v>16.910506158045649</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1920</v>
       </c>
@@ -23628,7 +27641,7 @@
         <v>18.988744583840258</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2048</v>
       </c>
@@ -23659,57 +27672,340 @@
         <v>21.669623588901995</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C171" s="2"/>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C172" s="2"/>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C173" s="2"/>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="5"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C174" s="2"/>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C175" s="2"/>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>3</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="1"/>
+      <c r="F191" t="s">
+        <v>3</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C176" s="2"/>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>128</v>
+      </c>
+      <c r="F192">
+        <v>128</v>
+      </c>
+      <c r="G192">
+        <v>4.2270099999999998E-2</v>
+      </c>
+      <c r="H192">
+        <v>616</v>
+      </c>
+      <c r="I192">
+        <v>6.8620299999999995E-2</v>
+      </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="2"/>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>256</v>
+      </c>
+      <c r="F193">
+        <v>256</v>
+      </c>
+      <c r="G193">
+        <v>2.2589000000000001</v>
+      </c>
+      <c r="H193">
+        <v>2115</v>
+      </c>
+      <c r="I193">
+        <v>1.0680400000000001</v>
+      </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="2"/>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>384</v>
+      </c>
+      <c r="F194">
+        <v>384</v>
+      </c>
+      <c r="G194">
+        <v>4.1738600000000003</v>
+      </c>
+      <c r="H194">
+        <v>2789</v>
+      </c>
+      <c r="I194">
+        <v>1.49654</v>
+      </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="2"/>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>512</v>
+      </c>
+      <c r="F195">
+        <v>512</v>
+      </c>
+      <c r="G195">
+        <v>5.7757500000000004</v>
+      </c>
+      <c r="H195">
+        <v>2979</v>
+      </c>
+      <c r="I195">
+        <v>1.93882</v>
+      </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="2"/>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>640</v>
+      </c>
+      <c r="F196">
+        <v>640</v>
+      </c>
+      <c r="G196">
+        <v>11.0579</v>
+      </c>
+      <c r="H196">
+        <v>5323</v>
+      </c>
+      <c r="I196">
+        <v>2.0773899999999998</v>
+      </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="2"/>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>768</v>
+      </c>
+      <c r="F197">
+        <v>768</v>
+      </c>
+      <c r="G197">
+        <v>21.686299999999999</v>
+      </c>
+      <c r="H197">
+        <v>6751</v>
+      </c>
+      <c r="I197">
+        <v>3.21231</v>
+      </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="2"/>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>896</v>
+      </c>
+      <c r="F198">
+        <v>896</v>
+      </c>
+      <c r="G198">
+        <v>37.494900000000001</v>
+      </c>
+      <c r="H198">
+        <v>8417</v>
+      </c>
+      <c r="I198">
+        <v>4.4546599999999996</v>
+      </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="2"/>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1024</v>
+      </c>
+      <c r="F199">
+        <v>1024</v>
+      </c>
+      <c r="G199">
+        <v>44.069800000000001</v>
+      </c>
+      <c r="H199">
+        <v>8708</v>
+      </c>
+      <c r="I199">
+        <v>5.0608399999999998</v>
+      </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="2"/>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1152</v>
+      </c>
+      <c r="F200">
+        <v>1152</v>
+      </c>
+      <c r="G200">
+        <v>83.615499999999997</v>
+      </c>
+      <c r="H200">
+        <v>11567</v>
+      </c>
+      <c r="I200">
+        <v>7.2287999999999997</v>
+      </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="2"/>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1280</v>
+      </c>
+      <c r="F201">
+        <v>1280</v>
+      </c>
+      <c r="G201">
+        <v>57.493899999999996</v>
+      </c>
+      <c r="H201">
+        <v>7942</v>
+      </c>
+      <c r="I201">
+        <v>7.2392200000000004</v>
+      </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="2"/>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1408</v>
+      </c>
+      <c r="F202">
+        <v>1408</v>
+      </c>
+      <c r="G202">
+        <v>113.00700000000001</v>
+      </c>
+      <c r="H202">
+        <v>12640</v>
+      </c>
+      <c r="I202">
+        <v>8.94041</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1536</v>
+      </c>
+      <c r="F203">
+        <v>1536</v>
+      </c>
+      <c r="G203">
+        <v>109.351</v>
+      </c>
+      <c r="H203">
+        <v>10706</v>
+      </c>
+      <c r="I203">
+        <v>10.214</v>
+      </c>
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1664</v>
+      </c>
+      <c r="F204">
+        <v>1664</v>
+      </c>
+      <c r="G204">
+        <v>155.24199999999999</v>
+      </c>
+      <c r="H204">
+        <v>12805</v>
+      </c>
+      <c r="I204">
+        <v>12.1235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1792</v>
+      </c>
+      <c r="F205">
+        <v>1792</v>
+      </c>
+      <c r="G205">
+        <v>119.34099999999999</v>
+      </c>
+      <c r="H205">
+        <v>8719</v>
+      </c>
+      <c r="I205">
+        <v>13.6874</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1920</v>
+      </c>
+      <c r="F206">
+        <v>1920</v>
+      </c>
+      <c r="G206">
+        <v>282.09800000000001</v>
+      </c>
+      <c r="H206">
+        <v>18705</v>
+      </c>
+      <c r="I206">
+        <v>15.0814</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2048</v>
+      </c>
+      <c r="F207">
+        <v>2048</v>
+      </c>
+      <c r="G207">
+        <v>334.73</v>
+      </c>
+      <c r="H207">
+        <v>19499</v>
+      </c>
+      <c r="I207">
+        <v>17.166499999999999</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A151:C151"/>
+  <mergeCells count="18">
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="L173:N173"/>
     <mergeCell ref="B152:D152"/>
     <mergeCell ref="G152:I152"/>
     <mergeCell ref="L152:N152"/>
